--- a/public/record/ToCustomer_7875.xlsx
+++ b/public/record/ToCustomer_7875.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,34 +25,37 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Repair HVAC Interior B10210</t>
+    <t>Obregon Gym - Roof Replacement</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/18/2022</t>
+    <t>04/11/2023</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>RKMF 17-0133</t>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
   </si>
   <si>
+    <t>6466</t>
+  </si>
+  <si>
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>FA486118FA140</t>
+    <t>P-12810-01160B1</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
   </si>
   <si>
-    <t>Kim, Hyun Myung</t>
+    <t>Gosavi, Nisarg Sagar</t>
   </si>
   <si>
     <t>CONTRACTOR</t>
@@ -73,6 +76,15 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
+    <t>Asbestos Instant Response Inc</t>
+  </si>
+  <si>
+    <t>Eugene A. Obregon Park</t>
+  </si>
+  <si>
+    <t>Asbestos Abatement</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -97,7 +109,7 @@
     <t>NOTE</t>
   </si>
   <si>
-    <t/>
+    <t>Site Visits: Peter Jun (Exbon), Ari Saldana (AIR, Inc.), Miguel Avila (LAISD</t>
   </si>
 </sst>
 </file>
@@ -1354,42 +1366,42 @@
         <v>7</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="16">
-        <v>5733</v>
+      <c r="F3" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -1398,10 +1410,10 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
@@ -1409,11 +1421,21 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>3</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
@@ -1482,7 +1504,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="48">
@@ -1497,7 +1519,7 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1509,21 +1531,21 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1558,7 +1580,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1570,7 +1592,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
